--- a/backend/axon_changes.xlsx
+++ b/backend/axon_changes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -480,9 +480,69 @@
         <v>2025-11-08T14:35:10.914Z</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7">
+        <v>958</v>
+      </c>
+      <c r="B7" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="C7" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D7" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E7" t="str">
+        <v>abcd</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2025-11-09T09:11:45.335Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>958</v>
+      </c>
+      <c r="B8" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="C8" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D8" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E8" t="str">
+        <v>abcd</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2025-11-09T09:13:48.439Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="C9" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D9" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E9" t="str">
+        <v>abcde</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2025-11-09T09:15:36.265Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/axon_changes.xlsx
+++ b/backend/axon_changes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -540,9 +540,60 @@
         <v>2025-11-09T09:15:36.265Z</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B10">
+        <v>534</v>
+      </c>
+      <c r="C10" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D10" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B11">
+        <v>550</v>
+      </c>
+      <c r="C11" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D11" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D12" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/axon_changes.xlsx
+++ b/backend/axon_changes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -591,9 +591,230 @@
         <v/>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B13">
+        <v>96</v>
+      </c>
+      <c r="C13" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D13" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B14">
+        <v>253</v>
+      </c>
+      <c r="C14" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D14" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B15">
+        <v>253</v>
+      </c>
+      <c r="C15" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D15" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E15" t="str">
+        <v>changning 253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B16">
+        <v>282</v>
+      </c>
+      <c r="C16" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D16" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B17">
+        <v>282</v>
+      </c>
+      <c r="C17" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D17" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E17" t="str">
+        <v>changing 282</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B18">
+        <v>330</v>
+      </c>
+      <c r="C18" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D18" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E18" t="str">
+        <v>changing 330</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B19">
+        <v>405</v>
+      </c>
+      <c r="C19" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D19" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E19" t="str">
+        <v>changing 405</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B20">
+        <v>993</v>
+      </c>
+      <c r="C20" t="str">
+        <v>mature</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v>here this is new</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B21">
+        <v>958</v>
+      </c>
+      <c r="C21" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D21" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B22">
+        <v>96</v>
+      </c>
+      <c r="C22" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D22" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E22" t="str">
+        <v>changed 96</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B23">
+        <v>96</v>
+      </c>
+      <c r="C23" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v>changed 96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B24">
+        <v>96</v>
+      </c>
+      <c r="C24" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v>changed 96</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D25" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/axon_changes.xlsx
+++ b/backend/axon_changes.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -812,9 +812,179 @@
         <v/>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D26" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D27" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B28">
+        <v>1016</v>
+      </c>
+      <c r="C28" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D28" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B29">
+        <v>603</v>
+      </c>
+      <c r="C29" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D29" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E29" t="str">
+        <v>changing 603</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B30">
+        <v>675</v>
+      </c>
+      <c r="C30" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D30" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E30" t="str">
+        <v>changed 675 too</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B31">
+        <v>557</v>
+      </c>
+      <c r="C31" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D31" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B32">
+        <v>1021</v>
+      </c>
+      <c r="C32" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D32" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B33">
+        <v>103</v>
+      </c>
+      <c r="C33" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D33" t="str">
+        <v>mature</v>
+      </c>
+      <c r="E33" t="str">
+        <v>103 changed</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B34">
+        <v>1046</v>
+      </c>
+      <c r="C34" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v>yes it is regrowth</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>40x_bf_03_all</v>
+      </c>
+      <c r="B35">
+        <v>1046</v>
+      </c>
+      <c r="C35" t="str">
+        <v>regrowth_cluster</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v>yes it is regrowth</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
   </ignoredErrors>
 </worksheet>
 </file>